--- a/EMI.xlsx
+++ b/EMI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\shadab\JAFURAPHASEII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5500A603-C1A7-4E56-9672-834B8CD3CA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B216796-90FB-415B-86B4-3A67CD34528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{E4DB8C6D-8346-4ADA-8FD3-75E344CE233D}"/>
   </bookViews>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +198,7 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +516,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -580,11 +581,11 @@
       </c>
       <c r="G2" s="10">
         <f ca="1">DATEDIF(TODAY(), B2, "m")-1</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="8">
         <f ca="1">D2- ((F2 - G2) * E2)</f>
-        <v>310909</v>
+        <v>300188</v>
       </c>
       <c r="I2" s="4">
         <v>3</v>
@@ -642,11 +643,11 @@
       </c>
       <c r="G4" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>134558</v>
+        <v>130581</v>
       </c>
       <c r="I4" s="4">
         <v>4</v>
@@ -673,11 +674,11 @@
       </c>
       <c r="G5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>64650</v>
+        <v>59866</v>
       </c>
       <c r="I5" s="4">
         <v>5</v>
@@ -704,11 +705,11 @@
       </c>
       <c r="G6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43866</v>
+        <v>41620</v>
       </c>
       <c r="I6" s="4">
         <v>8</v>
@@ -735,11 +736,11 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>63100</v>
+        <v>60692</v>
       </c>
       <c r="I7" s="4">
         <v>8</v>
@@ -766,11 +767,11 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>4174</v>
+        <v>3874</v>
       </c>
       <c r="I8" s="4">
         <v>8</v>
@@ -791,7 +792,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="17">
         <f ca="1">SUM(H2:H8)</f>
-        <v>682605</v>
+        <v>658169</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
@@ -809,7 +810,7 @@
       </c>
       <c r="E11" s="19">
         <f ca="1">D9-H9</f>
-        <v>29622</v>
+        <v>54058</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -846,59 +847,116 @@
       <c r="B16" s="14"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="F16" s="4">
+        <f>2593*12</f>
+        <v>31116</v>
+      </c>
+      <c r="G16" s="8">
+        <v>238000</v>
+      </c>
+      <c r="H16" s="8">
+        <f ca="1">H3-F16</f>
+        <v>30232</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="14"/>
       <c r="D17" s="8"/>
+      <c r="F17" s="4">
+        <f>E4*12</f>
+        <v>47724</v>
+      </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8">
+        <f ca="1">H4-F17</f>
+        <v>82857</v>
+      </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="14"/>
       <c r="D18" s="8"/>
+      <c r="F18" s="4">
+        <f>E5*12</f>
+        <v>57408</v>
+      </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8">
+        <f ca="1">H5-F18</f>
+        <v>2458</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="14"/>
       <c r="D19" s="8"/>
+      <c r="F19" s="4">
+        <f>E6*12</f>
+        <v>26952</v>
+      </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8">
+        <f ca="1">H6-F19</f>
+        <v>14668</v>
+      </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="14"/>
       <c r="D20" s="8"/>
+      <c r="F20" s="4">
+        <f>E7*12</f>
+        <v>28896</v>
+      </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8">
+        <f ca="1">H7-F20</f>
+        <v>31796</v>
+      </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="14"/>
       <c r="D21" s="8"/>
+      <c r="F21" s="4">
+        <f>E8*12</f>
+        <v>3600</v>
+      </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8">
+        <f ca="1">H8-F21</f>
+        <v>274</v>
+      </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="14"/>
       <c r="C22" s="6"/>
       <c r="D22" s="8"/>
+      <c r="F22" s="4">
+        <f>E2*12</f>
+        <v>128652</v>
+      </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8">
+        <f ca="1">H2-F22</f>
+        <v>171536</v>
+      </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="14"/>
       <c r="C23" s="12"/>
       <c r="D23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="8">
+        <f ca="1">H23-G16</f>
+        <v>95821</v>
+      </c>
+      <c r="H23" s="20">
+        <f ca="1">SUM(H16:H22)</f>
+        <v>333821</v>
+      </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>

--- a/EMI.xlsx
+++ b/EMI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\shadab\JAFURAPHASEII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\shadab\JAFURAPHASEII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B216796-90FB-415B-86B4-3A67CD34528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CC2A51-084E-44FD-9734-F6ED6B16D5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{E4DB8C6D-8346-4ADA-8FD3-75E344CE233D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E4DB8C6D-8346-4ADA-8FD3-75E344CE233D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>S.NO.</t>
   </si>
@@ -79,6 +79,75 @@
   </si>
   <si>
     <t xml:space="preserve">Difrence </t>
+  </si>
+  <si>
+    <t>Submitter's Name</t>
+  </si>
+  <si>
+    <t>FEDERAL BANK LIMITED (Creditor)</t>
+  </si>
+  <si>
+    <t>Information as on (date)</t>
+  </si>
+  <si>
+    <t>30-11-2025</t>
+  </si>
+  <si>
+    <t>Information submitted on (Date &amp; time)</t>
+  </si>
+  <si>
+    <t>13-12-2025 11:52:53</t>
+  </si>
+  <si>
+    <t>Type of Debt</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Type of information</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Unique Debt ID</t>
+  </si>
+  <si>
+    <t>AABCT0020H_75007600096908</t>
+  </si>
+  <si>
+    <t>Submission ID</t>
+  </si>
+  <si>
+    <t>Debt Status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Greetings from National E-Governance Services Ltd (NeSL), India's first Information</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBS CARD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">credit session </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adity birla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fedral bank </t>
+  </si>
+  <si>
+    <t>sbi loan</t>
+  </si>
+  <si>
+    <t>hero finance</t>
   </si>
 </sst>
 </file>
@@ -102,12 +171,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF0F1115"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFFFFF00"/>
       <name val="Arial"/>
@@ -124,8 +187,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +219,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F4F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,11 +234,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,10 +280,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -194,11 +289,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,16 +615,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B513653-ACAB-412C-A363-ADAD8CB3A6CC}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="13" customWidth="1"/>
     <col min="3" max="3" width="25.90625" customWidth="1"/>
     <col min="4" max="4" width="17.90625" style="9" customWidth="1"/>
     <col min="5" max="6" width="17.90625" customWidth="1"/>
@@ -531,11 +633,11 @@
     <col min="9" max="9" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -560,11 +662,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>46907</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -580,22 +682,26 @@
         <v>30</v>
       </c>
       <c r="G2" s="10">
-        <f ca="1">DATEDIF(TODAY(), B2, "m")-1</f>
-        <v>28</v>
+        <f ca="1">DATEDIF(TODAY(), B2, "m")</f>
+        <v>29</v>
       </c>
       <c r="H2" s="8">
         <f ca="1">D2- ((F2 - G2) * E2)</f>
-        <v>300188</v>
+        <v>310909</v>
       </c>
       <c r="I2" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="J2" s="4">
+        <f>F2*E2</f>
+        <v>321630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>46784</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -611,22 +717,26 @@
         <v>26</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ref="G3:G8" ca="1" si="0">DATEDIF(TODAY(), B3, "m")-1</f>
+        <f t="shared" ref="G3:G6" ca="1" si="0">DATEDIF(TODAY(), B3, "m")-1</f>
         <v>24</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H8" ca="1" si="1">D3- ((F3 - G3) * E3)</f>
+        <f t="shared" ref="H3:H6" ca="1" si="1">D3- ((F3 - G3) * E3)</f>
         <v>61348</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J6" si="2">F3*E3</f>
+        <v>67418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>47030</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -652,12 +762,16 @@
       <c r="I4" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <f t="shared" si="2"/>
+        <v>135218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>46451</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -673,22 +787,26 @@
         <v>15</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <f ca="1">DATEDIF(TODAY(), B5, "m")</f>
+        <v>14</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>59866</v>
+        <v>64650</v>
       </c>
       <c r="I5" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="J5" s="4">
+        <f t="shared" si="2"/>
+        <v>71760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>46699</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -714,12 +832,16 @@
       <c r="I6" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>51658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>47004</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -735,22 +857,26 @@
         <v>33</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">DATEDIF(TODAY(), B7, "m")-1</f>
         <v>31</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">D7- ((F7 - G7) * E7)</f>
         <v>60692</v>
       </c>
       <c r="I7" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="4">
+        <f>F7*E7</f>
+        <v>79464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>46485</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -766,207 +892,311 @@
         <v>16</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">DATEDIF(TODAY(), B8, "m")-1</f>
         <v>14</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">D8- ((F8 - G8) * E8)</f>
         <v>3874</v>
       </c>
       <c r="I8" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="14"/>
-      <c r="D9" s="17">
-        <f>SUM(D2:D8)</f>
-        <v>712227</v>
-      </c>
-      <c r="E9" s="16">
-        <f>SUM(E2:E8)</f>
-        <v>27029</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="17">
+      <c r="J8" s="4">
+        <f>F8*E8</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="9">
+        <v>16120</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1250</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>16120</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4">
+        <f>F9*E9</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="D10" s="15">
+        <f>SUM(D2:D9)</f>
+        <v>728347</v>
+      </c>
+      <c r="E10" s="14">
+        <f>SUM(E2:E9)</f>
+        <v>28279</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="15">
         <f ca="1">SUM(H2:H8)</f>
-        <v>658169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="14"/>
-      <c r="D10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+        <v>673674</v>
+      </c>
+      <c r="J10" s="4">
+        <f>SUM(J2:J9)</f>
+        <v>733198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="14"/>
-      <c r="D11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="19">
-        <f ca="1">D9-H9</f>
-        <v>54058</v>
-      </c>
+      <c r="B11" s="12"/>
+      <c r="D11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="14"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="12"/>
+      <c r="D12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="17">
+        <f ca="1">D10-H10</f>
+        <v>54673</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="12"/>
       <c r="D13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="12"/>
       <c r="D14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="12"/>
       <c r="D15" s="8"/>
-      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="8"/>
-      <c r="F16" s="4">
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="F17" s="4">
         <f>2593*12</f>
         <v>31116</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <v>238000</v>
       </c>
-      <c r="H16" s="8">
-        <f ca="1">H3-F16</f>
+      <c r="H17" s="8">
+        <f ca="1">H3-F17</f>
         <v>30232</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="14"/>
-      <c r="D17" s="8"/>
-      <c r="F17" s="4">
+      <c r="I17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="F18" s="4">
         <f>E4*12</f>
         <v>47724</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8">
-        <f ca="1">H4-F17</f>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
+        <f ca="1">H4-F18</f>
         <v>82857</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="14"/>
-      <c r="D18" s="8"/>
-      <c r="F18" s="4">
+      <c r="I18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4">
         <f>E5*12</f>
         <v>57408</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8">
-        <f ca="1">H5-F18</f>
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="14"/>
-      <c r="D19" s="8"/>
-      <c r="F19" s="4">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
+        <f ca="1">H5-F19</f>
+        <v>7242</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="F20" s="4">
         <f>E6*12</f>
         <v>26952</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8">
-        <f ca="1">H6-F19</f>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8">
+        <f ca="1">H6-F20</f>
         <v>14668</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="14"/>
-      <c r="D20" s="8"/>
-      <c r="F20" s="4">
+      <c r="I20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="F21" s="4">
         <f>E7*12</f>
         <v>28896</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8">
-        <f ca="1">H7-F20</f>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <f ca="1">H7-F21</f>
         <v>31796</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="14"/>
-      <c r="D21" s="8"/>
-      <c r="F21" s="4">
+      <c r="I21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="F22" s="4">
         <f>E8*12</f>
         <v>3600</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8">
-        <f ca="1">H8-F21</f>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
+        <f ca="1">H8-F22</f>
         <v>274</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="8"/>
-      <c r="F22" s="4">
+      <c r="I22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="19">
+        <v>29</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="F23" s="4">
         <f>E2*12</f>
         <v>128652</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8">
-        <f ca="1">H2-F22</f>
-        <v>171536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="8"/>
-      <c r="G23" s="8">
-        <f ca="1">H23-G16</f>
-        <v>95821</v>
-      </c>
-      <c r="H23" s="20">
-        <f ca="1">SUM(H16:H22)</f>
-        <v>333821</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
+        <f ca="1">H2-F23</f>
+        <v>182257</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="D24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="8">
+        <f ca="1">H24-G17</f>
+        <v>111326</v>
+      </c>
+      <c r="H24" s="18">
+        <f ca="1">SUM(H17:H23)</f>
+        <v>349326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>